--- a/bh3/505703906298486518_2021-03-24_18-29-26.xlsx
+++ b/bh3/505703906298486518_2021-03-24_18-29-26.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -546,10 +562,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-04-16 18:20:27</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44302.76420138889</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -621,10 +635,8 @@
           <t>4311076213</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-03-30 20:16:15</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44285.84461805555</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -688,10 +700,8 @@
           <t>4316246879</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-03-25 23:11:47</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44280.96651620371</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -767,10 +777,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-03-25 20:22:06</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44280.84868055556</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -838,10 +846,8 @@
           <t>4314568705</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-03-25 17:23:49</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44280.72487268518</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -909,10 +915,8 @@
           <t>4311256382</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-03-25 16:31:59</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44280.68887731482</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -980,10 +984,8 @@
           <t>4310953096</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:18:25</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44280.47112268519</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1060,10 +1062,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:17:14</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44280.47030092592</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1139,10 +1139,8 @@
           <t>4313278951</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:14:39</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44280.46850694445</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1223,10 +1221,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-03-25 11:11:23</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44280.46623842593</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1302,10 +1298,8 @@
           <t>4313209975</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-03-25 10:51:53</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44280.45269675926</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1375,10 +1369,8 @@
           <t>4313212896</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-03-25 10:51:45</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44280.45260416667</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1454,10 +1446,8 @@
           <t>4313212703</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-03-25 10:51:33</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44280.45246527778</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1526,10 +1516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-03-25 10:50:34</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44280.45178240741</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1597,10 +1585,8 @@
           <t>4311076213</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-03-25 10:27:21</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44280.43565972222</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1672,10 +1658,8 @@
           <t>4311256382</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-03-25 10:21:15</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44280.43142361111</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1751,10 +1735,8 @@
           <t>4310464494</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-03-25 10:18:47</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44280.42971064815</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1826,10 +1808,8 @@
           <t>4313092513</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-03-25 10:10:15</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44280.42378472222</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1897,10 +1877,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-03-25 09:47:16</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44280.40782407407</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1960,10 +1938,8 @@
           <t>4312856798</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-03-25 08:40:04</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44280.36115740741</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2039,10 +2015,8 @@
           <t>4312861616</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-03-25 08:40:02</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44280.36113425926</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2114,10 +2088,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-03-25 07:43:36</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44280.32194444445</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2193,10 +2165,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-03-25 07:41:06</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44280.32020833333</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2272,10 +2242,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-03-25 07:29:31</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44280.31216435185</v>
       </c>
       <c r="I25" t="n">
         <v>1</v>
@@ -2352,10 +2320,8 @@
           <t>4311076213</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-03-25 07:28:08</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44280.31120370371</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2432,10 +2398,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-03-25 07:27:27</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44280.31072916667</v>
       </c>
       <c r="I27" t="n">
         <v>1</v>
@@ -2507,10 +2471,8 @@
           <t>4310994847</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-03-25 07:16:40</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44280.30324074074</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2586,10 +2548,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-03-25 04:05:08</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44280.17023148148</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2657,10 +2617,8 @@
           <t>4312488778</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-03-25 02:31:04</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44280.10490740741</v>
       </c>
       <c r="I30" t="n">
         <v>1</v>
@@ -2736,10 +2694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-03-25 02:24:36</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44280.10041666667</v>
       </c>
       <c r="I31" t="n">
         <v>3</v>
@@ -2815,10 +2771,8 @@
           <t>4312313563</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-03-25 00:57:53</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44280.04019675926</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2894,10 +2848,8 @@
           <t>4312310878</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-03-25 00:55:03</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44280.03822916667</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2973,10 +2925,8 @@
           <t>4311076213</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-03-25 00:12:43</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44280.00883101852</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3052,10 +3002,8 @@
           <t>4311076213</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-03-25 00:09:48</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44280.00680555555</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3124,10 +3072,8 @@
           <t>4311256382</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:54:16</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44279.99601851852</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3195,10 +3141,8 @@
           <t>4312065383</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:52:09</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44279.99454861111</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3270,10 +3214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:48:24</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44279.99194444445</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3345,10 +3287,8 @@
           <t>4311076213</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:47:46</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44279.99150462963</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
@@ -3424,10 +3364,8 @@
           <t>4312032124</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:44:49</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44279.98945601852</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3495,10 +3433,8 @@
           <t>4312006144</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:40:46</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44279.98664351852</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3570,10 +3506,8 @@
           <t>4311967882</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:33:17</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44279.98144675926</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3649,10 +3583,8 @@
           <t>4311076213</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:33:08</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44279.98134259259</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3728,10 +3660,8 @@
           <t>4311076213</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:15:51</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44279.96934027778</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3799,10 +3729,8 @@
           <t>4311848332</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:11:09</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44279.96607638889</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3878,10 +3806,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:08:07</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44279.96396990741</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3953,10 +3879,8 @@
           <t>4310464494</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:02:23</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44279.95998842592</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -4024,10 +3948,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-03-24 23:00:15</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44279.95850694444</v>
       </c>
       <c r="I48" t="n">
         <v>1</v>
@@ -4091,10 +4013,8 @@
           <t>4310994847</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:52:26</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44279.9530787037</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4166,10 +4086,8 @@
           <t>4311289620</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:49:24</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44279.95097222222</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4237,10 +4155,8 @@
           <t>4311681963</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:40:18</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44279.94465277778</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4308,10 +4224,8 @@
           <t>4311680725</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:39:44</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44279.94425925926</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4387,10 +4301,8 @@
           <t>4311680725</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:39:37</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44279.94417824074</v>
       </c>
       <c r="I53" t="n">
         <v>1</v>
@@ -4466,10 +4378,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:35:24</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44279.94125</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4533,10 +4443,8 @@
           <t>4311611269</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:27:58</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44279.93608796296</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4608,10 +4516,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:26:40</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44279.93518518518</v>
       </c>
       <c r="I56" t="n">
         <v>1</v>
@@ -4675,10 +4581,8 @@
           <t>4310464494</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:19:24</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44279.93013888889</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4754,10 +4658,8 @@
           <t>4311524686</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:13:21</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44279.9259375</v>
       </c>
       <c r="I58" t="n">
         <v>2</v>
@@ -4833,10 +4735,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:12:42</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44279.92548611111</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4904,10 +4804,8 @@
           <t>4311119343</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:11:17</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44279.92450231482</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4971,10 +4869,8 @@
           <t>4311486704</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:04:12</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44279.91958333334</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -5050,10 +4946,8 @@
           <t>4311459611</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-03-24 22:00:11</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44279.91679398148</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5125,10 +5019,8 @@
           <t>4311410539</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:49:16</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44279.90921296296</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5204,10 +5096,8 @@
           <t>4310994847</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:46:19</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44279.90716435185</v>
       </c>
       <c r="I64" t="n">
         <v>1</v>
@@ -5283,10 +5173,8 @@
           <t>4310953096</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:45:12</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44279.90638888889</v>
       </c>
       <c r="I65" t="n">
         <v>3</v>
@@ -5358,10 +5246,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:40:25</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44279.90306712963</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5421,10 +5307,8 @@
           <t>4311350826</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:37:49</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44279.90126157407</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5503,10 +5387,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:36:55</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44279.90063657407</v>
       </c>
       <c r="I68" t="n">
         <v>1</v>
@@ -5582,10 +5464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:36:33</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44279.90038194445</v>
       </c>
       <c r="I69" t="n">
         <v>7</v>
@@ -5657,10 +5537,8 @@
           <t>4310994847</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:34:29</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44279.89894675926</v>
       </c>
       <c r="I70" t="n">
         <v>2</v>
@@ -5720,10 +5598,8 @@
           <t>4310953096</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:33:53</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44279.89853009259</v>
       </c>
       <c r="I71" t="n">
         <v>6</v>
@@ -5791,10 +5667,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:33:50</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44279.89849537037</v>
       </c>
       <c r="I72" t="n">
         <v>21</v>
@@ -5870,10 +5744,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:33:07</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44279.89799768518</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5945,10 +5817,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:31:17</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44279.89672453704</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -6020,10 +5890,8 @@
           <t>4311076213</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:30:47</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44279.89637731481</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6095,10 +5963,8 @@
           <t>4311076213</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:30:29</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44279.89616898148</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6162,10 +6028,8 @@
           <t>4311289620</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:30:09</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44279.8959375</v>
       </c>
       <c r="I77" t="n">
         <v>2</v>
@@ -6237,10 +6101,8 @@
           <t>4311076213</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:29:42</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44279.895625</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6316,10 +6178,8 @@
           <t>4311076213</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:29:35</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44279.89554398148</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6383,10 +6243,8 @@
           <t>4310981754</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:29:23</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44279.89540509259</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6450,10 +6308,8 @@
           <t>4311299809</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:28:44</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44279.8949537037</v>
       </c>
       <c r="I81" t="n">
         <v>1</v>
@@ -6517,10 +6373,8 @@
           <t>4311289620</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:27:12</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44279.89388888889</v>
       </c>
       <c r="I82" t="n">
         <v>1</v>
@@ -6588,10 +6442,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:27:02</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44279.89377314815</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6655,10 +6507,8 @@
           <t>4311287133</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:25:43</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44279.89285879629</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6730,10 +6580,8 @@
           <t>4310660461</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:23:48</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44279.89152777778</v>
       </c>
       <c r="I85" t="n">
         <v>3</v>
@@ -6797,10 +6645,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:23:30</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44279.89131944445</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6872,10 +6718,8 @@
           <t>4311256382</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:19:19</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44279.88841435185</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6939,10 +6783,8 @@
           <t>4311076213</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:19:11</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44279.88832175926</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -7014,10 +6856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:18:36</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44279.88791666667</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7094,10 +6934,8 @@
           <t>4311227658</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:14:07</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44279.88480324074</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7165,10 +7003,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:13:54</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44279.88465277778</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7240,10 +7076,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:13:05</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44279.88408564815</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7307,10 +7141,8 @@
           <t>4311076213</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:12:02</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44279.88335648148</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7374,10 +7206,8 @@
           <t>4311076213</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:07:36</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44279.88027777777</v>
       </c>
       <c r="I94" t="n">
         <v>4</v>
@@ -7453,10 +7283,8 @@
           <t>4311188919</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:06:36</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44279.87958333334</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7528,10 +7356,8 @@
           <t>4311193054</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:06:19</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44279.87938657407</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
@@ -7603,10 +7429,8 @@
           <t>4311143913</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:04:54</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44279.87840277778</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7678,10 +7502,8 @@
           <t>4310953096</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:02:15</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44279.8765625</v>
       </c>
       <c r="I98" t="n">
         <v>8</v>
@@ -7745,10 +7567,8 @@
           <t>4310953096</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-03-24 21:00:36</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44279.87541666667</v>
       </c>
       <c r="I99" t="n">
         <v>4</v>
@@ -7812,10 +7632,8 @@
           <t>4310953096</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:59:53</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44279.87491898148</v>
       </c>
       <c r="I100" t="n">
         <v>1</v>
@@ -7879,10 +7697,8 @@
           <t>4310953096</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:59:46</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44279.87483796296</v>
       </c>
       <c r="I101" t="n">
         <v>21</v>
@@ -7946,10 +7762,8 @@
           <t>4311155801</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:58:20</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44279.87384259259</v>
       </c>
       <c r="I102" t="n">
         <v>1</v>
@@ -8021,10 +7835,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:57:07</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44279.87299768518</v>
       </c>
       <c r="I103" t="n">
         <v>2</v>
@@ -8096,10 +7908,8 @@
           <t>4311143913</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:57:06</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44279.87298611111</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8171,10 +7981,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:56:36</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44279.87263888889</v>
       </c>
       <c r="I105" t="n">
         <v>2</v>
@@ -8242,10 +8050,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:54:59</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44279.8715162037</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8317,10 +8123,8 @@
           <t>4310953096</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:53:35</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44279.87054398148</v>
       </c>
       <c r="I107" t="n">
         <v>5</v>
@@ -8392,10 +8196,8 @@
           <t>4311076213</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:53:14</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44279.87030092593</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8463,10 +8265,8 @@
           <t>4310660056</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:53:04</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44279.87018518519</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8542,10 +8342,8 @@
           <t>4311119343</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:51:46</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44279.86928240741</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8613,10 +8411,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:51:33</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44279.86913194445</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8684,10 +8480,8 @@
           <t>4311098390</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:50:54</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44279.86868055556</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8759,10 +8553,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:49:55</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44279.86799768519</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8834,10 +8626,8 @@
           <t>4311108484</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:49:48</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44279.86791666667</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8905,10 +8695,8 @@
           <t>4311098390</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:47:02</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44279.86599537037</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
@@ -8984,10 +8772,8 @@
           <t>4311093639</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:46:45</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44279.86579861111</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9063,10 +8849,8 @@
           <t>4311096958</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:46:08</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44279.86537037037</v>
       </c>
       <c r="I117" t="n">
         <v>1</v>
@@ -9142,10 +8926,8 @@
           <t>4311076213</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:42:02</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44279.86252314815</v>
       </c>
       <c r="I118" t="n">
         <v>27</v>
@@ -9221,10 +9003,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:42:00</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44279.8625</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9293,10 +9073,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:40:22</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44279.86136574074</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9368,10 +9146,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:37:00</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44279.85902777778</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9443,10 +9219,8 @@
           <t>4311047783</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:36:39</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44279.85878472222</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9518,10 +9292,8 @@
           <t>4311030632</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:32:03</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44279.85559027778</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9593,10 +9365,8 @@
           <t>4310980527</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:27:45</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44279.85260416667</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9672,10 +9442,8 @@
           <t>4310464494</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:25:13</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44279.85084490741</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9747,10 +9515,8 @@
           <t>4310994847</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:25:02</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44279.85071759259</v>
       </c>
       <c r="I126" t="n">
         <v>15</v>
@@ -9823,10 +9589,8 @@
           <t>4310994009</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:24:30</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44279.85034722222</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9890,10 +9654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:24:19</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44279.85021990741</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9965,10 +9727,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:23:39</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44279.84975694444</v>
       </c>
       <c r="I129" t="n">
         <v>1</v>
@@ -10040,10 +9800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:23:00</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44279.84930555556</v>
       </c>
       <c r="I130" t="n">
         <v>5</v>
@@ -10107,10 +9865,8 @@
           <t>4310982786</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:22:07</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44279.84869212963</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10174,10 +9930,8 @@
           <t>4310980527</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:21:49</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44279.8484837963</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10249,10 +10003,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:21:45</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44279.8484375</v>
       </c>
       <c r="I133" t="n">
         <v>1</v>
@@ -10320,10 +10072,8 @@
           <t>4310981754</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:21:26</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44279.84821759259</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10395,10 +10145,8 @@
           <t>4310973592</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:20:48</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44279.84777777778</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
@@ -10470,10 +10218,8 @@
           <t>4310980527</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:20:40</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44279.84768518519</v>
       </c>
       <c r="I136" t="n">
         <v>1</v>
@@ -10537,10 +10283,8 @@
           <t>4310853170</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:20:08</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44279.84731481481</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10612,10 +10356,8 @@
           <t>4310972360</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:19:58</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44279.84719907407</v>
       </c>
       <c r="I138" t="n">
         <v>1</v>
@@ -10691,10 +10433,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:19:39</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44279.84697916666</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10758,10 +10498,8 @@
           <t>4310846747</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:19:35</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44279.84693287037</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10837,10 +10575,8 @@
           <t>4310971635</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:19:28</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44279.84685185185</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10912,10 +10648,8 @@
           <t>4310971225</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:19:12</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44279.84666666666</v>
       </c>
       <c r="I142" t="n">
         <v>3</v>
@@ -10979,10 +10713,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:18:19</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44279.84605324074</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11058,10 +10790,8 @@
           <t>4310963486</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:17:38</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44279.8455787037</v>
       </c>
       <c r="I144" t="n">
         <v>2</v>
@@ -11125,10 +10855,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:17:31</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44279.84549768519</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11200,10 +10928,8 @@
           <t>4310660461</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:17:11</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44279.8452662037</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11275,10 +11001,8 @@
           <t>4310954746</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:16:54</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44279.84506944445</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
@@ -11338,10 +11062,8 @@
           <t>4310660461</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:16:50</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44279.84502314815</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11413,10 +11135,8 @@
           <t>4310953911</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:16:21</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44279.8446875</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11489,10 +11209,8 @@
           <t>4310953096</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:15:50</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44279.8443287037</v>
       </c>
       <c r="I150" t="n">
         <v>3</v>
@@ -11556,10 +11274,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:12:42</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44279.84215277778</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11631,10 +11347,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:12:14</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44279.84182870371</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11710,10 +11424,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:10:21</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44279.84052083334</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11785,10 +11497,8 @@
           <t>4310931855</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:10:18</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44279.84048611111</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11860,10 +11570,8 @@
           <t>4310923745</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:09:58</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44279.84025462963</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11927,10 +11635,8 @@
           <t>4310925661</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:09:07</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44279.83966435185</v>
       </c>
       <c r="I156" t="n">
         <v>1</v>
@@ -12006,10 +11712,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:09:00</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44279.83958333333</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -12081,10 +11785,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:07:14</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44279.83835648148</v>
       </c>
       <c r="I158" t="n">
         <v>117</v>
@@ -12148,10 +11850,8 @@
           <t>4310899948</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:05:33</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44279.8371875</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12227,10 +11927,8 @@
           <t>4310903166</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:04:54</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44279.83673611111</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12302,10 +12000,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:03:28</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44279.83574074074</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12377,10 +12073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:03:02</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44279.83543981481</v>
       </c>
       <c r="I162" t="n">
         <v>8</v>
@@ -12456,10 +12150,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:02:17</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44279.83491898148</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12535,10 +12227,8 @@
           <t>4310547348</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:01:27</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44279.83434027778</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12614,10 +12304,8 @@
           <t>4310561259</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-03-24 20:00:08</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44279.83342592593</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12685,10 +12373,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:58:27</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44279.83225694444</v>
       </c>
       <c r="I166" t="n">
         <v>3</v>
@@ -12756,10 +12442,8 @@
           <t>4310867796</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:57:53</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44279.83186342593</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
@@ -12831,10 +12515,8 @@
           <t>4310867428</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:57:39</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44279.83170138889</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12910,10 +12592,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:56:38</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44279.83099537037</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12985,10 +12665,8 @@
           <t>4310860028</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:55:37</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44279.83028935185</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13061,10 +12739,8 @@
           <t>4310853170</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:54:55</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44279.82980324074</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13140,10 +12816,8 @@
           <t>4310846747</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:53:36</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44279.82888888889</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13219,10 +12893,8 @@
           <t>4310503158</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:53:30</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44279.82881944445</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13294,10 +12966,8 @@
           <t>4310846533</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:53:28</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44279.82879629629</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13369,10 +13039,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:49:25</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44279.8259837963</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
@@ -13440,10 +13108,8 @@
           <t>4310819451</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:49:02</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44279.82571759259</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
@@ -13515,10 +13181,8 @@
           <t>4310816363</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:47:06</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44279.824375</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13594,10 +13258,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:45:03</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44279.82295138889</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13673,10 +13335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:44:59</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44279.82290509259</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13740,10 +13400,8 @@
           <t>4310561259</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:43:51</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44279.82211805556</v>
       </c>
       <c r="I180" t="n">
         <v>1</v>
@@ -13815,10 +13473,8 @@
           <t>4310799777</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:43:49</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44279.82209490741</v>
       </c>
       <c r="I181" t="n">
         <v>3</v>
@@ -13886,10 +13542,8 @@
           <t>4310503158</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:42:00</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44279.82083333333</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
@@ -13953,10 +13607,8 @@
           <t>4310610023</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:41:34</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44279.82053240741</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -14028,10 +13680,8 @@
           <t>4310779782</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:39:57</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44279.81940972222</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -14107,10 +13757,8 @@
           <t>4310776348</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:37:46</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44279.81789351852</v>
       </c>
       <c r="I185" t="n">
         <v>2</v>
@@ -14174,10 +13822,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:36:28</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44279.81699074074</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14241,10 +13887,8 @@
           <t>4310753259</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:33:26</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44279.81488425926</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14320,10 +13964,8 @@
           <t>4310743648</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:32:54</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44279.81451388889</v>
       </c>
       <c r="I188" t="n">
         <v>1</v>
@@ -14395,10 +14037,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:32:23</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44279.81415509259</v>
       </c>
       <c r="I189" t="n">
         <v>2</v>
@@ -14470,10 +14110,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:32:12</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44279.81402777778</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14541,10 +14179,8 @@
           <t>4310732468</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:29:15</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44279.81197916667</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
@@ -14620,10 +14256,8 @@
           <t>4310730669</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:28:06</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44279.81118055555</v>
       </c>
       <c r="I192" t="n">
         <v>3</v>
@@ -14695,10 +14329,8 @@
           <t>4310723842</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:27:31</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44279.81077546296</v>
       </c>
       <c r="I193" t="n">
         <v>18</v>
@@ -14772,10 +14404,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:25:17</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44279.80922453704</v>
       </c>
       <c r="I194" t="n">
         <v>10</v>
@@ -14843,10 +14473,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:24:09</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44279.8084375</v>
       </c>
       <c r="I195" t="n">
         <v>53</v>
@@ -14922,10 +14550,8 @@
           <t>4310706770</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:23:06</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44279.80770833333</v>
       </c>
       <c r="I196" t="n">
         <v>14</v>
@@ -14989,10 +14615,8 @@
           <t>4310700161</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:21:38</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44279.80668981482</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -15056,10 +14680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:21:03</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44279.80628472222</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15135,10 +14757,8 @@
           <t>4310464494</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:20:44</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44279.80606481482</v>
       </c>
       <c r="I199" t="n">
         <v>3</v>
@@ -15214,10 +14834,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:20:42</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44279.80604166666</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
@@ -15289,10 +14907,8 @@
           <t>4310464494</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:20:04</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44279.80560185185</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15360,10 +14976,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:20:01</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44279.80556712963</v>
       </c>
       <c r="I202" t="n">
         <v>3</v>
@@ -15435,10 +15049,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:19:50</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44279.80543981482</v>
       </c>
       <c r="I203" t="n">
         <v>1</v>
@@ -15506,10 +15118,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:19:47</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44279.80540509259</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15577,10 +15187,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:19:19</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44279.80508101852</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15644,10 +15252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:18:57</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44279.80482638889</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15723,10 +15329,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:18:42</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44279.80465277778</v>
       </c>
       <c r="I207" t="n">
         <v>6</v>
@@ -15790,10 +15394,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:18:14</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44279.80432870371</v>
       </c>
       <c r="I208" t="n">
         <v>16</v>
@@ -15869,10 +15471,8 @@
           <t>4310673738</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:17:45</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44279.80399305555</v>
       </c>
       <c r="I209" t="n">
         <v>24</v>
@@ -15944,10 +15544,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:17:13</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44279.80362268518</v>
       </c>
       <c r="I210" t="n">
         <v>2</v>
@@ -16011,10 +15609,8 @@
           <t>4310547348</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:17:04</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44279.80351851852</v>
       </c>
       <c r="I211" t="n">
         <v>1</v>
@@ -16082,10 +15678,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:16:47</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44279.80332175926</v>
       </c>
       <c r="I212" t="n">
         <v>11</v>
@@ -16157,10 +15751,8 @@
           <t>4310675752</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:16:21</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44279.80302083334</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16228,10 +15820,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:16:09</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44279.80288194444</v>
       </c>
       <c r="I214" t="n">
         <v>37</v>
@@ -16303,10 +15893,8 @@
           <t>4310610023</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:16:06</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44279.80284722222</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16378,10 +15966,8 @@
           <t>4310666920</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:16:01</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44279.80278935185</v>
       </c>
       <c r="I216" t="n">
         <v>1</v>
@@ -16449,10 +16035,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:15:30</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44279.80243055556</v>
       </c>
       <c r="I217" t="n">
         <v>4</v>
@@ -16524,10 +16108,8 @@
           <t>4310659372</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:15:02</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44279.80210648148</v>
       </c>
       <c r="I218" t="n">
         <v>3</v>
@@ -16604,10 +16186,8 @@
           <t>4310660663</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:13:11</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44279.80082175926</v>
       </c>
       <c r="I219" t="n">
         <v>8</v>
@@ -16679,10 +16259,8 @@
           <t>4310660461</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:13:03</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44279.80072916667</v>
       </c>
       <c r="I220" t="n">
         <v>13</v>
@@ -16754,10 +16332,8 @@
           <t>4310660056</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:12:49</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44279.80056712963</v>
       </c>
       <c r="I221" t="n">
         <v>35</v>
@@ -16821,10 +16397,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:12:33</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44279.80038194444</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16900,10 +16474,8 @@
           <t>4310650899</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:12:16</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44279.80018518519</v>
       </c>
       <c r="I223" t="n">
         <v>2</v>
@@ -16979,10 +16551,8 @@
           <t>4310644498</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:12:03</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44279.80003472222</v>
       </c>
       <c r="I224" t="n">
         <v>5</v>
@@ -17050,10 +16620,8 @@
           <t>4310648613</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:11:55</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44279.79994212963</v>
       </c>
       <c r="I225" t="n">
         <v>1</v>
@@ -17117,10 +16685,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:11:49</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44279.79987268519</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -17188,10 +16754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:11:38</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44279.79974537037</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
@@ -17267,10 +16831,8 @@
           <t>4310610023</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:09:53</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44279.79853009259</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17338,10 +16900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:09:40</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44279.79837962963</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17417,10 +16977,8 @@
           <t>4310640260</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:09:24</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44279.79819444445</v>
       </c>
       <c r="I230" t="n">
         <v>2</v>
@@ -17496,10 +17054,8 @@
           <t>4310636117</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:09:10</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44279.79803240741</v>
       </c>
       <c r="I231" t="n">
         <v>1</v>
@@ -17563,10 +17119,8 @@
           <t>4310464494</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:08:56</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44279.79787037037</v>
       </c>
       <c r="I232" t="n">
         <v>17</v>
@@ -17643,10 +17197,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:08:53</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44279.79783564815</v>
       </c>
       <c r="I233" t="n">
         <v>37</v>
@@ -17714,10 +17266,8 @@
           <t>4310629282</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:08:47</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44279.7977662037</v>
       </c>
       <c r="I234" t="n">
         <v>1</v>
@@ -17793,10 +17343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:08:23</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44279.79748842592</v>
       </c>
       <c r="I235" t="n">
         <v>36</v>
@@ -17872,10 +17420,8 @@
           <t>4310633039</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:08:22</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44279.79747685185</v>
       </c>
       <c r="I236" t="n">
         <v>1</v>
@@ -17951,10 +17497,8 @@
           <t>4310561259</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:07:22</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44279.79678240741</v>
       </c>
       <c r="I237" t="n">
         <v>2</v>
@@ -18030,10 +17574,8 @@
           <t>4310626545</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:07:06</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44279.79659722222</v>
       </c>
       <c r="I238" t="n">
         <v>2</v>
@@ -18110,10 +17652,8 @@
           <t>4310626397</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:07:00</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44279.79652777778</v>
       </c>
       <c r="I239" t="n">
         <v>2</v>
@@ -18185,10 +17725,8 @@
           <t>4310561259</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:06:47</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44279.79637731481</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18260,10 +17798,8 @@
           <t>4310619991</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:06:31</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44279.79619212963</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18341,10 +17877,8 @@
           <t>4310561259</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:05:50</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44279.79571759259</v>
       </c>
       <c r="I242" t="n">
         <v>11</v>
@@ -18420,10 +17954,8 @@
           <t>4310617459</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:04:57</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44279.79510416667</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18495,10 +18027,8 @@
           <t>4310610023</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:04:55</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44279.79508101852</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18570,10 +18100,8 @@
           <t>4310612652</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:04:43</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44279.79494212963</v>
       </c>
       <c r="I245" t="n">
         <v>2</v>
@@ -18649,10 +18177,8 @@
           <t>4310609019</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:04:42</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44279.79493055555</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18720,10 +18246,8 @@
           <t>4310615786</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:03:55</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44279.79438657407</v>
       </c>
       <c r="I247" t="n">
         <v>6</v>
@@ -18791,10 +18315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:03:52</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44279.79435185185</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18866,10 +18388,8 @@
           <t>4310606967</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:03:26</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44279.79405092593</v>
       </c>
       <c r="I249" t="n">
         <v>10</v>
@@ -18945,10 +18465,8 @@
           <t>4310610023</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:03:07</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44279.79383101852</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -19020,10 +18538,8 @@
           <t>4310603179</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:02:21</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44279.79329861111</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -19099,10 +18615,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:02:14</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44279.7932175926</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -19178,10 +18692,8 @@
           <t>4310594852</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:02:08</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44279.79314814815</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -19253,10 +18765,8 @@
           <t>4310601424</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:01:15</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44279.79253472222</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -19324,10 +18834,8 @@
           <t>4310592190</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:00:32</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44279.79203703703</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19403,10 +18911,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:00:30</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44279.79201388889</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19478,10 +18984,8 @@
           <t>4310595071</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:00:11</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44279.79179398148</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19553,10 +19057,8 @@
           <t>4310584946</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-03-24 19:00:06</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44279.79173611111</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
@@ -19628,10 +19130,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:57:28</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44279.78990740741</v>
       </c>
       <c r="I259" t="n">
         <v>9</v>
@@ -19705,10 +19205,8 @@
           <t>4310576296</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:56:55</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44279.78952546296</v>
       </c>
       <c r="I260" t="n">
         <v>7</v>
@@ -19784,10 +19282,8 @@
           <t>4310574000</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:56:38</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44279.7893287037</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
@@ -19863,10 +19359,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:56:32</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44279.78925925926</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19934,10 +19428,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:56:31</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44279.78924768518</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
@@ -20013,10 +19505,8 @@
           <t>4310567740</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:55:48</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44279.78875</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -20088,10 +19578,8 @@
           <t>4310563628</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:55:15</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44279.78836805555</v>
       </c>
       <c r="I265" t="n">
         <v>2</v>
@@ -20167,10 +19655,8 @@
           <t>4310563264</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:55:02</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44279.78821759259</v>
       </c>
       <c r="I266" t="n">
         <v>3</v>
@@ -20238,10 +19724,8 @@
           <t>4310566259</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:54:56</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44279.78814814815</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -20317,10 +19801,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:54:53</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44279.78811342592</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20388,10 +19870,8 @@
           <t>4310547348</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:54:35</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44279.78790509259</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20467,10 +19947,8 @@
           <t>4310547348</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:54:24</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44279.78777777778</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20546,10 +20024,8 @@
           <t>4310547348</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:54:02</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44279.78752314814</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20625,10 +20101,8 @@
           <t>4310561259</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:53:49</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44279.78737268518</v>
       </c>
       <c r="I272" t="n">
         <v>11</v>
@@ -20700,10 +20174,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:53:40</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44279.78726851852</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20779,10 +20251,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:53:26</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44279.78710648148</v>
       </c>
       <c r="I274" t="n">
         <v>1</v>
@@ -20850,10 +20320,8 @@
           <t>4310547348</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:53:18</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44279.78701388889</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20921,10 +20389,8 @@
           <t>4310557112</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:52:25</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44279.78640046297</v>
       </c>
       <c r="I276" t="n">
         <v>4</v>
@@ -21000,10 +20466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:51:54</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44279.78604166667</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -21071,10 +20535,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:51:53</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44279.78603009259</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
@@ -21138,10 +20600,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:51:45</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44279.7859375</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -21213,10 +20673,8 @@
           <t>4310556058</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:51:45</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44279.7859375</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
@@ -21288,10 +20746,8 @@
           <t>4310521317</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:50:57</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44279.78538194444</v>
       </c>
       <c r="I281" t="n">
         <v>2</v>
@@ -21367,10 +20823,8 @@
           <t>4310539129</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:50:35</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44279.78512731481</v>
       </c>
       <c r="I282" t="n">
         <v>2</v>
@@ -21446,10 +20900,8 @@
           <t>4310538799</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:50:22</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44279.78497685185</v>
       </c>
       <c r="I283" t="n">
         <v>4</v>
@@ -21517,10 +20969,8 @@
           <t>4310545484</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:50:12</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44279.78486111111</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21584,10 +21034,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:49:28</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44279.78435185185</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
@@ -21655,10 +21103,8 @@
           <t>4310542170</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:49:27</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44279.78434027778</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21734,10 +21180,8 @@
           <t>4310536958</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:49:14</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44279.78418981482</v>
       </c>
       <c r="I287" t="n">
         <v>6</v>
@@ -21809,10 +21253,8 @@
           <t>4310541785</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:49:12</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44279.78416666666</v>
       </c>
       <c r="I288" t="n">
         <v>16</v>
@@ -21888,10 +21330,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:48:50</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44279.78391203703</v>
       </c>
       <c r="I289" t="n">
         <v>1</v>
@@ -21963,10 +21403,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:47:54</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44279.78326388889</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
@@ -22034,10 +21472,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:47:12</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44279.78277777778</v>
       </c>
       <c r="I291" t="n">
         <v>1</v>
@@ -22113,10 +21549,8 @@
           <t>4310521317</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:45:40</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44279.78171296296</v>
       </c>
       <c r="I292" t="n">
         <v>12</v>
@@ -22193,10 +21627,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:45:13</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44279.78140046296</v>
       </c>
       <c r="I293" t="n">
         <v>4</v>
@@ -22272,10 +21704,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:45:06</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44279.78131944445</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
@@ -22351,10 +21781,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:44:50</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44279.78113425926</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -22426,10 +21854,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:44:47</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44279.78109953704</v>
       </c>
       <c r="I296" t="n">
         <v>312</v>
@@ -22505,10 +21931,8 @@
           <t>4310509130</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:44:19</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44279.78077546296</v>
       </c>
       <c r="I297" t="n">
         <v>1</v>
@@ -22572,10 +21996,8 @@
           <t>4310509100</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:44:18</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44279.78076388889</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22651,10 +22073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:43:53</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44279.78047453704</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22730,10 +22150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:43:26</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44279.78016203704</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22797,10 +22215,8 @@
           <t>4310464494</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:42:51</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44279.77975694444</v>
       </c>
       <c r="I301" t="n">
         <v>5</v>
@@ -22872,10 +22288,8 @@
           <t>4310503158</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:42:13</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44279.77931712963</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22947,10 +22361,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:42:09</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44279.77927083334</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -23014,10 +22426,8 @@
           <t>4310505159</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:41:47</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44279.77901620371</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -23093,10 +22503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:41:34</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44279.77886574074</v>
       </c>
       <c r="I305" t="n">
         <v>64</v>
@@ -23164,10 +22572,8 @@
           <t>4310464494</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:41:32</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44279.77884259259</v>
       </c>
       <c r="I306" t="n">
         <v>5</v>
@@ -23243,10 +22649,8 @@
           <t>4310484510</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:41:15</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44279.77864583334</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23310,10 +22714,8 @@
           <t>4310464494</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:41:01</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44279.7784837963</v>
       </c>
       <c r="I308" t="n">
         <v>6</v>
@@ -23385,10 +22787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:40:39</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44279.77822916667</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -23456,10 +22856,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:40:36</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44279.77819444444</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23531,10 +22929,8 @@
           <t>4310500534</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:40:34</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44279.7781712963</v>
       </c>
       <c r="I311" t="n">
         <v>2</v>
@@ -23602,10 +22998,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:39:39</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44279.77753472222</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
@@ -23681,10 +23075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:38:56</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44279.77703703703</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23748,10 +23140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:38:42</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44279.776875</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23827,10 +23217,8 @@
           <t>4310484510</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:38:25</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44279.77667824074</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
@@ -23902,10 +23290,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:37:55</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44279.77633101852</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
@@ -23973,10 +23359,8 @@
           <t>4310483368</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:37:42</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44279.77618055556</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -24040,10 +23424,8 @@
           <t>4310477803</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:37:10</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44279.77581018519</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -24111,10 +23493,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:37:04</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44279.77574074074</v>
       </c>
       <c r="I319" t="n">
         <v>2</v>
@@ -24190,10 +23570,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:37:01</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44279.77570601852</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -24267,10 +23645,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:36:20</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44279.77523148148</v>
       </c>
       <c r="I321" t="n">
         <v>223</v>
@@ -24346,10 +23722,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:36:18</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44279.77520833333</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -24413,10 +23787,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:35:26</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44279.77460648148</v>
       </c>
       <c r="I323" t="n">
         <v>1</v>
@@ -24492,10 +23864,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:35:11</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44279.77443287037</v>
       </c>
       <c r="I324" t="n">
         <v>10</v>
@@ -24571,10 +23941,8 @@
           <t>4310464494</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:35:08</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44279.77439814815</v>
       </c>
       <c r="I325" t="n">
         <v>58</v>
@@ -24642,10 +24010,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:34:44</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44279.77412037037</v>
       </c>
       <c r="I326" t="n">
         <v>182</v>
@@ -24709,10 +24075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:34:25</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44279.77390046296</v>
       </c>
       <c r="I327" t="n">
         <v>4</v>
@@ -24791,10 +24155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:33:49</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44279.7734837963</v>
       </c>
       <c r="I328" t="n">
         <v>1</v>
@@ -24854,10 +24216,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:33:18</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44279.773125</v>
       </c>
       <c r="I329" t="n">
         <v>0</v>
@@ -24925,10 +24285,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:33:07</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44279.77299768518</v>
       </c>
       <c r="I330" t="n">
         <v>1</v>
@@ -24996,10 +24354,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:32:49</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44279.77278935185</v>
       </c>
       <c r="I331" t="n">
         <v>13</v>
@@ -25068,10 +24424,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:32:35</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44279.77262731481</v>
       </c>
       <c r="I332" t="n">
         <v>8</v>
@@ -25143,10 +24497,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:32:32</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44279.77259259259</v>
       </c>
       <c r="I333" t="n">
         <v>1099</v>
@@ -25222,10 +24574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:32:13</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44279.77237268518</v>
       </c>
       <c r="I334" t="n">
         <v>2</v>
@@ -25301,10 +24651,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:32:11</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44279.77234953704</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -25380,10 +24728,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:32:07</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44279.77230324074</v>
       </c>
       <c r="I336" t="n">
         <v>33</v>
@@ -25459,10 +24805,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:31:56</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44279.77217592593</v>
       </c>
       <c r="I337" t="n">
         <v>1</v>
@@ -25526,10 +24870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:31:55</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44279.77216435185</v>
       </c>
       <c r="I338" t="n">
         <v>77</v>
@@ -25605,10 +24947,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:31:47</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44279.77207175926</v>
       </c>
       <c r="I339" t="n">
         <v>0</v>
@@ -25676,10 +25016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:31:46</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44279.77206018518</v>
       </c>
       <c r="I340" t="n">
         <v>1</v>
@@ -25755,10 +25093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:31:40</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44279.77199074074</v>
       </c>
       <c r="I341" t="n">
         <v>5</v>
@@ -25823,10 +25159,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:31:37</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44279.77195601852</v>
       </c>
       <c r="I342" t="n">
         <v>2</v>
@@ -25898,10 +25232,8 @@
           <t>4310455885</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:31:14</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44279.77168981481</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25973,10 +25305,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:31:11</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44279.77165509259</v>
       </c>
       <c r="I344" t="n">
         <v>17</v>
@@ -26055,10 +25385,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:31:02</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44279.77155092593</v>
       </c>
       <c r="I345" t="n">
         <v>1</v>
@@ -26134,10 +25462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:30:41</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44279.77130787037</v>
       </c>
       <c r="I346" t="n">
         <v>0</v>
@@ -26205,10 +25531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:30:41</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44279.77130787037</v>
       </c>
       <c r="I347" t="n">
         <v>338</v>
@@ -26284,10 +25608,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:30:38</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44279.77127314815</v>
       </c>
       <c r="I348" t="n">
         <v>70</v>
@@ -26359,10 +25681,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:30:30</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44279.77118055556</v>
       </c>
       <c r="I349" t="n">
         <v>1</v>
@@ -26434,10 +25754,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:30:17</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44279.77103009259</v>
       </c>
       <c r="I350" t="n">
         <v>18</v>
@@ -26505,10 +25823,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:30:14</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44279.77099537037</v>
       </c>
       <c r="I351" t="n">
         <v>3</v>
@@ -26584,10 +25900,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:30:09</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44279.7709375</v>
       </c>
       <c r="I352" t="n">
         <v>5</v>
@@ -26659,10 +25973,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:30:06</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44279.77090277777</v>
       </c>
       <c r="I353" t="n">
         <v>1</v>
@@ -26738,10 +26050,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:30:04</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44279.77087962963</v>
       </c>
       <c r="I354" t="n">
         <v>1</v>
@@ -26801,10 +26111,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-03-24 18:29:51</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44279.77072916667</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
